--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_47.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_47.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,630 +488,656 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_298</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.04807692307692308</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B']]</t>
+          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(0.344657, 14.158934)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(2.612267, 20.410362)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:04:11.500000', '0:04:15.380000'), ('0:00:24.180000', '0:00:27.660000'), ('0:00:09.240000', '0:00:12.560000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:16.560000', '0:01:27.040000'), ('0:00:47.580000', '0:00:50.040000'), ('0:01:37.880000', '0:01:48.980000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_152</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2019230769230769</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:min', 'G:sus4', 'G', 'C']]</t>
-        </is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.3142857142857143</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:sus4', 'G', 'C']]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(86.936, 90.861)]</t>
+          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(3.43, 8.311)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:01:10.203514', '0:01:27.246961')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_73</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_13</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.03170324733667051</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F:7', 'F:7', 'Bb'], ['Bb', 'Bb:7/3', 'Eb:7']]</t>
-        </is>
+          <t>jaah_53</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jaah_7</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.03005718536426612</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Bb:7', 'Eb'], ['Eb', 'Eb:7', 'Ab:7']]</t>
+          <t>[['A:min7', 'D:7', 'G', 'G', 'A:min7', 'D:7']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(26.0, 28.15), (10.51, 11.83)]</t>
+          <t>[['F:min7', 'Bb:7', 'Eb', 'Eb', 'F:min7', 'Bb:7']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(33.48, 41.46), (20.11, 25.55)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:40.450000', '0:00:47.850000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:08.350000', '0:00:14.240000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_136</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_74</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1174603174603175</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:maj', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>jaah_9</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_35</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1671428571428571</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Eb:7', 'Ab']]</t>
+          <t>[['C:7', 'F', 'F'], ['G:7', 'C:7', 'F']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(81.94, 97.58)]</t>
+          <t>[['G:7', 'C', 'C/7'], ['D:7', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(18.84, 21.61)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:51.690000', '0:00:55.720000'), ('0:00:50.360000', '0:00:54.400000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:12.851927', '0:00:16.810929'), ('0:00:18.783807', '0:00:24.845034')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>isophonics_59</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_55</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1071176885130374</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C', 'G', 'G:maj(*1)/5', 'G'], ['G:maj(*1)/5', 'G', 'G', 'C']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(5.7, 19.72)]</t>
+          <t>[['F', 'C', 'C', 'C'], ['C', 'C', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(5.78, 21.0)]</t>
+          <t>[('0:00:46.318571', '0:00:58.334897'), ('0:00:10.454596', '0:00:25.350952')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:37.610000', '0:00:39.540000'), ('0:00:35.680000', '0:00:37.280000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.4017857142857143</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4307692307692308</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(63.1, 64.5), (61.32, 63.7)]</t>
+          <t>[['E', 'A:min', 'E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(0.82, 8.8), (55.58, 62.32)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:07.720000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:41.820000', '0:00:47.891000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_232</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3055555555555556</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_155</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C', 'F', 'C', 'F', 'C']]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(128.76, 134.6)]</t>
+          <t>[['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db', 'Ab', 'Db/5']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(16.17907, 25.606371)]</t>
+          <t>[('0:02:13.919000', '0:02:23.322000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:04:21.828000', '0:04:49.808000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_28</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_263</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2291666666666667</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'C']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.65</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'A']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(4.476213, 15.8656)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(32.874217, 50.277573)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:7CZiDzGVjUssMSOXrDNYHL</t>
-        </is>
-      </c>
+          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07900136798905609</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['G#', 'C#:7', 'F#']]</t>
-        </is>
+          <t>schubert-winterreise_199</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B', 'E:7', 'A']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(46.925564, 51.790144)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(64.685555, 69.851995)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:01.260000', '0:01:07.540000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_34</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_44</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1768115942028985</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min', 'F:min', 'Bb']]</t>
-        </is>
+          <t>isophonics_238</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_42</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E:min', 'A:min', 'D:min', 'G']]</t>
+          <t>[['B:dim7', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(30.731632, 39.764195)]</t>
+          <t>[['F#:dim7', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(4.197573, 9.516363)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
+          <t>[('0:00:30.076213', '0:00:37.274399')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:16.240000', '0:00:17.660000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:5By7Pzgl6TMuVJG168VWzS</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_86</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03573573573573574</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Bb:7', 'Eb', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb', 'Bb']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A', 'A:7', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(18.07, 20.04)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(12.43, 14.82)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:04:01.220000', '0:04:15.460000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:19.360000', '0:00:23.020000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.106312292358804</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_179</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(13.3, 17.6)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(24.24, 30.96)]</t>
+          <t>[('0:00:00.220000', '0:00:15.080000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:00.660000', '0:00:13.280000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_148</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2534722222222222</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_212</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(20.04, 23.45)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(12.58, 24.94)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
+          <t>[('0:00:13.980000', '0:00:18.160000'), ('0:00:23.460000', '0:00:26.480000'), ('0:00:18.840000', '0:00:20.320000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:12.980000', '0:00:17.200000'), ('0:00:22.600000', '0:00:25.720000'), ('0:00:17.900000', '0:00:19.440000')]</t>
+        </is>
+      </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_111</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_36</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[('0:00:05.440000', '0:01:53.760000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
+          <t>[('0:00:07.540000', '0:02:02.260000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_30</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(7.76, 25.82)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(9.24, 28.04)]</t>
+          <t>[('0:00:59.640000', '0:01:02.580000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>jaah_73</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_8</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.02802764075614448</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'D:7', 'G:7', 'G:7', 'C:7', 'C:7', 'F:7', 'F:7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'D:7', 'G:7', 'G:7', 'C:7', 'C:7', 'F:7', 'F:7']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(20.83, 27.72)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(17.15, 25.32)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:24.260000', '0:00:27.200000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
